--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>97.47382465704555</v>
+        <v>134.3892062037879</v>
       </c>
       <c r="R2">
-        <v>877.2644219134099</v>
+        <v>1209.502855834091</v>
       </c>
       <c r="S2">
-        <v>0.05157310655038769</v>
+        <v>0.029764127548111</v>
       </c>
       <c r="T2">
-        <v>0.05157310655038769</v>
+        <v>0.029764127548111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>97.76166766258221</v>
+        <v>93.85352024324177</v>
       </c>
       <c r="R3">
-        <v>879.8550089632399</v>
+        <v>844.6816821891761</v>
       </c>
       <c r="S3">
-        <v>0.05172540341620327</v>
+        <v>0.02078640261572086</v>
       </c>
       <c r="T3">
-        <v>0.05172540341620328</v>
+        <v>0.02078640261572086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>69.08948671790056</v>
+        <v>267.2786037725064</v>
       </c>
       <c r="R4">
-        <v>621.805380461105</v>
+        <v>2405.507433952558</v>
       </c>
       <c r="S4">
-        <v>0.03655503898149676</v>
+        <v>0.05919608187507603</v>
       </c>
       <c r="T4">
-        <v>0.03655503898149677</v>
+        <v>0.05919608187507603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H5">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>3.526463382197222</v>
+        <v>3.777014406465445</v>
       </c>
       <c r="R5">
-        <v>31.738170439775</v>
+        <v>33.99312965818901</v>
       </c>
       <c r="S5">
-        <v>0.001865841136284499</v>
+        <v>0.0008365220818003582</v>
       </c>
       <c r="T5">
-        <v>0.001865841136284499</v>
+        <v>0.0008365220818003582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H6">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>106.2500633669211</v>
+        <v>277.3152119322246</v>
       </c>
       <c r="R6">
-        <v>956.2505703022899</v>
+        <v>2495.836907390021</v>
       </c>
       <c r="S6">
-        <v>0.05621658797412941</v>
+        <v>0.0614189604369396</v>
       </c>
       <c r="T6">
-        <v>0.05621658797412941</v>
+        <v>0.0614189604369396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>253.6153781253331</v>
+        <v>364.2252079341252</v>
       </c>
       <c r="R7">
-        <v>2282.538403127998</v>
+        <v>3278.026871407127</v>
       </c>
       <c r="S7">
-        <v>0.1341871314159954</v>
+        <v>0.08066753165242667</v>
       </c>
       <c r="T7">
-        <v>0.1341871314159954</v>
+        <v>0.08066753165242667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J8">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
         <v>254.3643116256524</v>
@@ -948,10 +948,10 @@
         <v>2289.278804630872</v>
       </c>
       <c r="S8">
-        <v>0.1345833898715041</v>
+        <v>0.0563358622971015</v>
       </c>
       <c r="T8">
-        <v>0.1345833898715041</v>
+        <v>0.0563358622971015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J9">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>179.7626835727021</v>
+        <v>724.385594537725</v>
       </c>
       <c r="R9">
-        <v>1617.864152154319</v>
+        <v>6519.470350839525</v>
       </c>
       <c r="S9">
-        <v>0.0951118935396004</v>
+        <v>0.1604347985889611</v>
       </c>
       <c r="T9">
-        <v>0.09511189353960041</v>
+        <v>0.1604347985889611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J10">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>9.175441173749444</v>
+        <v>10.23656509644811</v>
       </c>
       <c r="R10">
-        <v>82.578970563745</v>
+        <v>92.129085868033</v>
       </c>
       <c r="S10">
-        <v>0.004854698242995334</v>
+        <v>0.002267164438215388</v>
       </c>
       <c r="T10">
-        <v>0.004854698242995336</v>
+        <v>0.002267164438215388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J11">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>276.4501145969402</v>
+        <v>751.5870774334818</v>
       </c>
       <c r="R11">
-        <v>2488.051031372462</v>
+        <v>6764.283696901336</v>
       </c>
       <c r="S11">
-        <v>0.146268921591396</v>
+        <v>0.1664593033038661</v>
       </c>
       <c r="T11">
-        <v>0.1462689215913961</v>
+        <v>0.1664593033038661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H12">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>6.558137748522444</v>
+        <v>45.56491724461678</v>
       </c>
       <c r="R12">
-        <v>59.023239736702</v>
+        <v>410.0842552015511</v>
       </c>
       <c r="S12">
-        <v>0.003469890897034995</v>
+        <v>0.01009158433848737</v>
       </c>
       <c r="T12">
-        <v>0.003469890897034996</v>
+        <v>0.01009158433848738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H13">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>6.577504117769777</v>
+        <v>31.82121543685955</v>
       </c>
       <c r="R13">
-        <v>59.197537059928</v>
+        <v>286.390938931736</v>
       </c>
       <c r="S13">
-        <v>0.003480137584575994</v>
+        <v>0.007047669539489479</v>
       </c>
       <c r="T13">
-        <v>0.003480137584575995</v>
+        <v>0.007047669539489481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H14">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>4.648410714003445</v>
+        <v>90.62132150467087</v>
       </c>
       <c r="R14">
-        <v>41.83569642603101</v>
+        <v>815.591893542038</v>
       </c>
       <c r="S14">
-        <v>0.00245946008466115</v>
+        <v>0.02007054471140535</v>
       </c>
       <c r="T14">
-        <v>0.002459460084661151</v>
+        <v>0.02007054471140535</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H15">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>0.2372640317227778</v>
+        <v>1.280603954169889</v>
       </c>
       <c r="R15">
-        <v>2.135376285505</v>
+        <v>11.525435587529</v>
       </c>
       <c r="S15">
-        <v>0.0001255356833659334</v>
+        <v>0.0002836244108230586</v>
       </c>
       <c r="T15">
-        <v>0.0001255356833659334</v>
+        <v>0.0002836244108230586</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H16">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>7.148611986870888</v>
+        <v>94.02425268592012</v>
       </c>
       <c r="R16">
-        <v>64.33750788183801</v>
+        <v>846.2182741732811</v>
       </c>
       <c r="S16">
-        <v>0.003782309035101789</v>
+        <v>0.02082421593677562</v>
       </c>
       <c r="T16">
-        <v>0.00378230903510179</v>
+        <v>0.02082421593677562</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H17">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>106.1762953840587</v>
+        <v>178.2083622482909</v>
       </c>
       <c r="R17">
-        <v>955.586658456528</v>
+        <v>1603.875260234618</v>
       </c>
       <c r="S17">
-        <v>0.05617755755695272</v>
+        <v>0.03946906581213659</v>
       </c>
       <c r="T17">
-        <v>0.05617755755695273</v>
+        <v>0.03946906581213659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H18">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>106.4898370357546</v>
+        <v>124.4555467380498</v>
       </c>
       <c r="R18">
-        <v>958.4085333217919</v>
+        <v>1120.099920642448</v>
       </c>
       <c r="S18">
-        <v>0.05634345149891915</v>
+        <v>0.027564049761288</v>
       </c>
       <c r="T18">
-        <v>0.05634345149891916</v>
+        <v>0.027564049761288</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H19">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>75.25780152264267</v>
+        <v>354.4278858979204</v>
       </c>
       <c r="R19">
-        <v>677.320213703784</v>
+        <v>3189.850973081283</v>
       </c>
       <c r="S19">
-        <v>0.03981867573506191</v>
+        <v>0.07849764947994531</v>
       </c>
       <c r="T19">
-        <v>0.03981867573506192</v>
+        <v>0.07849764947994531</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H20">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>3.841306310146667</v>
+        <v>5.008553667202444</v>
       </c>
       <c r="R20">
-        <v>34.57175679132</v>
+        <v>45.076983004822</v>
       </c>
       <c r="S20">
-        <v>0.002032423579590719</v>
+        <v>0.001109279788111218</v>
       </c>
       <c r="T20">
-        <v>0.002032423579590719</v>
+        <v>0.001109279788111218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H21">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>115.7360773757813</v>
+        <v>367.7370463074175</v>
       </c>
       <c r="R21">
-        <v>1041.624696382032</v>
+        <v>3309.633416766758</v>
       </c>
       <c r="S21">
-        <v>0.06123560936719277</v>
+        <v>0.08144532332352648</v>
       </c>
       <c r="T21">
-        <v>0.06123560936719278</v>
+        <v>0.08144532332352648</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H22">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I22">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J22">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N22">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q22">
-        <v>28.62763854832334</v>
+        <v>58.93538588985523</v>
       </c>
       <c r="R22">
-        <v>257.64874693491</v>
+        <v>530.418473008697</v>
       </c>
       <c r="S22">
-        <v>0.01514679718717642</v>
+        <v>0.01305283655045021</v>
       </c>
       <c r="T22">
-        <v>0.01514679718717643</v>
+        <v>0.01305283655045021</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H23">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I23">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J23">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q23">
-        <v>28.71217678769333</v>
+        <v>41.15876258893245</v>
       </c>
       <c r="R23">
-        <v>258.40959108924</v>
+        <v>370.428863300392</v>
       </c>
       <c r="S23">
-        <v>0.01519152611457771</v>
+        <v>0.009115722118052628</v>
       </c>
       <c r="T23">
-        <v>0.01519152611457771</v>
+        <v>0.009115722118052628</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H24">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I24">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J24">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N24">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q24">
-        <v>20.29128189242834</v>
+        <v>117.2130418684651</v>
       </c>
       <c r="R24">
-        <v>182.621537031855</v>
+        <v>1054.917376816186</v>
       </c>
       <c r="S24">
-        <v>0.01073605603108462</v>
+        <v>0.02596000100770546</v>
       </c>
       <c r="T24">
-        <v>0.01073605603108463</v>
+        <v>0.02596000100770546</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H25">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I25">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J25">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N25">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q25">
-        <v>1.035706964558333</v>
+        <v>1.656381549118111</v>
       </c>
       <c r="R25">
-        <v>9.321362681025002</v>
+        <v>14.907433942063</v>
       </c>
       <c r="S25">
-        <v>0.0005479894302504386</v>
+        <v>0.000366850531295865</v>
       </c>
       <c r="T25">
-        <v>0.0005479894302504386</v>
+        <v>0.000366850531295865</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H26">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I26">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J26">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N26">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q26">
-        <v>31.20518170397667</v>
+        <v>121.6145216571119</v>
       </c>
       <c r="R26">
-        <v>280.84663533579</v>
+        <v>1094.530694914007</v>
       </c>
       <c r="S26">
-        <v>0.0165105674944609</v>
+        <v>0.02693482785228893</v>
       </c>
       <c r="T26">
-        <v>0.0165105674944609</v>
+        <v>0.02693482785228893</v>
       </c>
     </row>
   </sheetData>
